--- a/dist/maestro-portalunico/assets/modelo_importacao.xlsx
+++ b/dist/maestro-portalunico/assets/modelo_importacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean Alves\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPERACIONAL\Workspace\Eficilog\maestro-portalunico\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B7DCE-C3CA-4C86-A806-56F9E92404AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85747D01-3274-4EB9-A69A-D4CCA9C5AC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F9D35F-162A-4CEF-8C66-5BC39D794CE9}"/>
   </bookViews>
@@ -29,8 +29,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jean Alves</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E6DC1174-E7BA-42E2-B405-F169E8C978BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 até 3700 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CA93DBC4-87E3-446F-BB47-6AB6849A1681}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 a 8 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{73829A02-7EFB-40BC-9CBC-AE090D9EF163}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ativado
+Desativado
+Rascunho</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8BBAD26B-118B-444B-9D28-3C715FC60BC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ambos
+Exportacao
+Importacao</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{39316E7E-29A8-4D1B-8519-59D2FFEAD454}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 a 8 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C17D5A26-C81B-4800-847B-983A2FFC3684}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 a 8 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{510BDF43-C3D0-40F5-9328-5151F412311E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 a 10 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FBE7131C-37EC-4DD7-94C1-58DFB3EA83FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 a 10 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F4F944A7-0748-4960-A59C-A930B035E344}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>De 1 a 10 caracteres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A5F4860C-B91F-4F61-A1D1-BB804E2F72FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sigla País de Origem</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>numeroDI</t>
   </si>
@@ -81,49 +235,26 @@
   </si>
   <si>
     <t>fabricanteNome</t>
-  </si>
-  <si>
-    <t>ATIVADO</t>
-  </si>
-  <si>
-    <t>EXPORTACAO</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>Importações LTDA</t>
-  </si>
-  <si>
-    <t>Fornecedor Ltda</t>
-  </si>
-  <si>
-    <t>Fabricante Ltda</t>
-  </si>
-  <si>
-    <t>Produto de Teste 2</t>
-  </si>
-  <si>
-    <t>Produto de Teste 1</t>
-  </si>
-  <si>
-    <t>AMBOS</t>
-  </si>
-  <si>
-    <t>RASCUNHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,11 +592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7F43C5-A4BC-46C8-B7D4-BA5A5D9DDCCF}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7F43C5-A4BC-46C8-B7D4-BA5A5D9DDCCF}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,108 +672,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123456789</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>10123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>456123</v>
-      </c>
-      <c r="G2">
-        <v>123456789</v>
-      </c>
-      <c r="H2">
-        <v>123456789</v>
-      </c>
-      <c r="I2">
-        <v>123456789</v>
-      </c>
-      <c r="J2">
-        <v>123456789</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>3051100000</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>1122123</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>111234566</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>10123456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>456123</v>
-      </c>
-      <c r="G3">
-        <v>123456789</v>
-      </c>
-      <c r="H3">
-        <v>123456789</v>
-      </c>
-      <c r="I3">
-        <v>123456789</v>
-      </c>
-      <c r="J3">
-        <v>123456789</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>3051100000</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>1122123</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>